--- a/biology/Zoologie/Igai_(dinosaure)/Igai_(dinosaure).xlsx
+++ b/biology/Zoologie/Igai_(dinosaure)/Igai_(dinosaure).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Igai semkhu
-Igai est un genre fossile de dinosaures sauropodes de la famille des titanosaures ayant vécu il y a 75 Ma (Crétacé supérieur)[1],[2]. Il n'est représenté que par son espèce type, Igai semkhu, découverte en 2023 en Égypte dans l'oasis d'Al-Kharga ce qui fait de lui le second titanosaure découvert dans le pays avec Mansourasaurus shahinae identifié en 2018[1],[2]. 
+Igai est un genre fossile de dinosaures sauropodes de la famille des titanosaures ayant vécu il y a 75 Ma (Crétacé supérieur),. Il n'est représenté que par son espèce type, Igai semkhu, découverte en 2023 en Égypte dans l'oasis d'Al-Kharga ce qui fait de lui le second titanosaure découvert dans le pays avec Mansourasaurus shahinae identifié en 2018,. 
 </t>
         </is>
       </c>
@@ -512,12 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Igai et l'espèce Igai semkhu ont été décrits en 2023 par Eric Gorscak (d), Matthew Carl Lamanna (d), Daniela Schwarz (d), Verónica Díez Díaz (d), Belal S. Salem (d), Hesham M. Sallam (d) et Wiechmann (d)[3].
-Étymologie
-Le nom générique, Igai, reprend le nom de l'énigmatique « seigneur de l'oasis » vénéré par les habitants des oasis égyptiennes d'Ad-Dakhla et Al-Kharga[3].
-Son épithète spécifique, semkhu, signifie « l'oublié » et dérive de l'ancien terme égyptien semekh, « oublier »[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Igai et l'espèce Igai semkhu ont été décrits en 2023 par Eric Gorscak (d), Matthew Carl Lamanna (d), Daniela Schwarz (d), Verónica Díez Díaz (d), Belal S. Salem (d), Hesham M. Sallam (d) et Wiechmann (d).
 </t>
         </is>
       </c>
@@ -543,12 +554,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Igai, reprend le nom de l'énigmatique « seigneur de l'oasis » vénéré par les habitants des oasis égyptiennes d'Ad-Dakhla et Al-Kharga.
+Son épithète spécifique, semkhu, signifie « l'oublié » et dérive de l'ancien terme égyptien semekh, « oublier ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Igai_(dinosaure)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Igai_(dinosaure)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il mesurait entre 10 et 15 mètres de longueur d'après les cinq vertèbres dorsales découvertes[1],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il mesurait entre 10 et 15 mètres de longueur d'après les cinq vertèbres dorsales découvertes,.
 </t>
         </is>
       </c>
